--- a/MainTop/17.12.2025 Таня ВБ/print_print_sorted.xlsx
+++ b/MainTop/17.12.2025 Таня ВБ/print_print_sorted.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\17.12.2025 Таня ВБ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\17.12.2025 Таня ВБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64985B5-CBFE-44C2-8E77-ACB77EEF0565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48ECDE8-4107-42D2-8873-7A14CF82F012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,7 +683,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="3" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" customWidth="1"/>
+    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2048,5 +2050,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>